--- a/WT_Wheels_Bearing_Tyres/WT_bom.xlsx
+++ b/WT_Wheels_Bearing_Tyres/WT_bom.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FSAE_invictus\STUF2019\CR - Cost Report\BOM\WT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FSAE_invictus\STUF-2020\WT_Wheels_Bearing_Tyres\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
   <si>
     <t>System</t>
   </si>
@@ -116,15 +116,6 @@
     <t>Rim Dowel</t>
   </si>
   <si>
-    <t>WT_01003</t>
-  </si>
-  <si>
-    <t>Rim Lock Nut</t>
-  </si>
-  <si>
-    <t>WT_01004</t>
-  </si>
-  <si>
     <t>Front hubs</t>
   </si>
   <si>
@@ -185,9 +176,6 @@
     <t>Front Bearing</t>
   </si>
   <si>
-    <t>FAG B71910-E-2RSD-T-P4S</t>
-  </si>
-  <si>
     <t>WT_02007</t>
   </si>
   <si>
@@ -221,9 +209,6 @@
     <t>WT_03001</t>
   </si>
   <si>
-    <t>from rear brake disc deal</t>
-  </si>
-  <si>
     <t>WT_03002</t>
   </si>
   <si>
@@ -273,6 +258,39 @@
   </si>
   <si>
     <t>WT_03010</t>
+  </si>
+  <si>
+    <t>Rim Nut</t>
+  </si>
+  <si>
+    <t>WT_02010</t>
+  </si>
+  <si>
+    <t>WT_02011</t>
+  </si>
+  <si>
+    <t>WT_03011</t>
+  </si>
+  <si>
+    <t>WT_03012</t>
+  </si>
+  <si>
+    <t>angular contact ball bearing</t>
+  </si>
+  <si>
+    <t>to position WT_03006 (1mm thick)</t>
+  </si>
+  <si>
+    <t>to position WT_03006 became 2mm thick</t>
+  </si>
+  <si>
+    <t>hand trimmed</t>
+  </si>
+  <si>
+    <t>non metric, nylstop self-locking</t>
+  </si>
+  <si>
+    <t>rear brake disc combo deal</t>
   </si>
 </sst>
 </file>
@@ -753,11 +771,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,52 +863,44 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
-        <v>16</v>
-      </c>
-      <c r="G6" s="4" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -901,26 +911,28 @@
         <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4">
         <v>2</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="4"/>
       <c r="F9" s="4">
         <v>2</v>
       </c>
@@ -935,12 +947,13 @@
         <v>26</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="4">
+        <f>2*1</f>
         <v>2</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -954,319 +967,387 @@
         <v>29</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F11" s="4">
-        <f>2*1</f>
         <v>2</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F12" s="4">
-        <v>2</v>
+        <f>2*2</f>
+        <v>4</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="4">
+        <v>4</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="4">
-        <f>2*2</f>
-        <v>4</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="4">
-        <v>4</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="4">
-        <v>2</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="F16" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4">
+        <v>8</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="4">
-        <v>2</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="4">
-        <v>2</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>52</v>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E20" s="4"/>
       <c r="F20" s="4">
         <v>2</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="F21" s="4">
         <v>2</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="4" t="str">
-        <f>CONCATENATE("same as in front hub (",G11,")")</f>
-        <v>same as in front hub (WT_02004)</v>
+        <v>19</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="F22" s="4">
-        <f>2*1</f>
         <v>2</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="4" t="str">
-        <f>CONCATENATE("same as in front hub (",G12,")")</f>
-        <v>same as in front hub (WT_02005)</v>
+        <v>19</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="F23" s="4">
         <v>2</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="4" t="str">
-        <f>CONCATENATE("same as in front hub (",G13,")")</f>
-        <v>same as in front hub (WT_02006)</v>
+        <v>19</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="F24" s="4">
-        <f>2*2</f>
-        <v>4</v>
+        <f>2*1</f>
+        <v>2</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="4" t="str">
-        <f>CONCATENATE("same as in front hub (",G14,")")</f>
-        <v>same as in front hub (WT_02007)</v>
+        <v>19</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="F25" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="F26" s="4">
-        <v>2</v>
+        <f>2*2</f>
+        <v>4</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="F27" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G27" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4">
+        <v>2</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="4">
+        <v>2</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="4">
+        <v>8</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4">
+        <v>8</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>68</v>
       </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
